--- a/data/trans_camb/P41A_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-8.974324383559946</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.5069488158600755</v>
+        <v>-0.5069488158600699</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-15.76056142434495</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-32.47731417278026</v>
+        <v>-32.10302885409538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-26.45030658061563</v>
+        <v>-27.16818805171124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-27.69318271467521</v>
+        <v>-27.86501766009444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-17.09587931987042</v>
+        <v>-16.59166040204083</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-17.10767316914442</v>
+        <v>-17.55408070109457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.783207736012907</v>
+        <v>-9.031122086895365</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-21.58556493221974</v>
+        <v>-21.57762197311384</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-19.67028396001912</v>
+        <v>-19.80263974914148</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-16.07995270836646</v>
+        <v>-15.94030046442114</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-14.55343255223926</v>
+        <v>-14.22473951557165</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.573683228884535</v>
+        <v>-10.15938620435043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.230232394163099</v>
+        <v>-9.588248253608935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.4526497155023</v>
+        <v>1.233546536446824</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.77556834020001</v>
+        <v>-1.207935633692709</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.967218229917115</v>
+        <v>8.168858970728014</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-9.612195202810758</v>
+        <v>-9.335076615335305</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.162521217444757</v>
+        <v>-7.405522550443197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.52961741706131</v>
+        <v>-3.940554835766676</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2111110850524296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.01192541187594236</v>
+        <v>-0.01192541187594223</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3115784050821461</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5206342545796164</v>
+        <v>-0.5224778196921451</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4335025918887016</v>
+        <v>-0.4354896296879051</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4499024101199286</v>
+        <v>-0.4551275591379784</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3655757693045443</v>
+        <v>-0.3547953935952293</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3616039864088461</v>
+        <v>-0.3650501418836153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1916753563021364</v>
+        <v>-0.1929177122110141</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4075671975046902</v>
+        <v>-0.4047588332718043</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3705592181676488</v>
+        <v>-0.3648153663575505</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.299954882453275</v>
+        <v>-0.2979314014037201</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2745435835727922</v>
+        <v>-0.2671645560445031</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.176232614112937</v>
+        <v>-0.183787063944985</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1675860111270499</v>
+        <v>-0.1795808789640957</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03580655423650087</v>
+        <v>0.03856165168499696</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.008866933891861958</v>
+        <v>-0.01968459057199767</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.215928513913108</v>
+        <v>0.2063301469190853</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2066627242501413</v>
+        <v>-0.1996842533873133</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1679962988493967</v>
+        <v>-0.1485873390783424</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.07399765505306655</v>
+        <v>-0.08114104890991365</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-16.57695169230011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.713816170200059</v>
+        <v>-5.713816170200042</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-11.54037399125102</v>
@@ -869,7 +869,7 @@
         <v>-13.52200906565068</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-11.75010938701655</v>
+        <v>-11.75010938701656</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-8.593021297815307</v>
@@ -878,7 +878,7 @@
         <v>-15.05004151739241</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.922560567046716</v>
+        <v>-8.9225605670467</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.01466107483184</v>
+        <v>-11.83905154650557</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-22.73861404290527</v>
+        <v>-22.5299411135317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.75221979909582</v>
+        <v>-14.47961546667189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.24355616312031</v>
+        <v>-17.74857462972808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-19.03281687525212</v>
+        <v>-18.83706775773952</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-18.69120183233323</v>
+        <v>-18.74768505442064</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-12.69836201191234</v>
+        <v>-13.06531218162718</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-19.28023711090399</v>
+        <v>-18.83802696234374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.39618696407932</v>
+        <v>-14.50598062503696</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.146206046355192</v>
+        <v>0.7156939888217683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-10.55464439120479</v>
+        <v>-10.26720637611192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.371962646234353</v>
+        <v>4.717240291199661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.596535098823092</v>
+        <v>-5.714321522058693</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-8.340871089044894</v>
+        <v>-7.719131976442667</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.713859849778417</v>
+        <v>-4.965755600443956</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-4.073021368045946</v>
+        <v>-4.21906434541154</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-10.66082583361573</v>
+        <v>-10.51642807472025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.236523743908267</v>
+        <v>-2.758232058991409</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3473100595033174</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.119712349465612</v>
+        <v>-0.1197123494656117</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2804984533682519</v>
@@ -974,7 +974,7 @@
         <v>-0.3286637532043563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2855962477875151</v>
+        <v>-0.2855962477875153</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1935242250655214</v>
@@ -983,7 +983,7 @@
         <v>-0.3389433728737268</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2009458093368045</v>
+        <v>-0.2009458093368041</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2356997026892252</v>
+        <v>-0.2302248985745468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4494025466580472</v>
+        <v>-0.4438351321755401</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2910537821850375</v>
+        <v>-0.2926319036342668</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3972927422322465</v>
+        <v>-0.4017242902483879</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4319074723524151</v>
+        <v>-0.4237947270976973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4198934060552775</v>
+        <v>-0.4312168859972855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2771063468536999</v>
+        <v>-0.2774693550174634</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4121139863104293</v>
+        <v>-0.4075162990302134</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3143370401340772</v>
+        <v>-0.3141339498280308</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02880431925901917</v>
+        <v>0.01473320086475452</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.239024507264907</v>
+        <v>-0.2303155150070118</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07513100540722921</v>
+        <v>0.105718122065942</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1471464009881485</v>
+        <v>-0.1479044948476762</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2179923007812616</v>
+        <v>-0.1956095147008077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1151959008313867</v>
+        <v>-0.1268307687035644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09320650568212978</v>
+        <v>-0.09769294293070349</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2476740151251606</v>
+        <v>-0.2507003716456105</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05154512668118193</v>
+        <v>-0.06293395605257841</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.53121421732459</v>
+        <v>-3.500849595729236</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.103386316571246</v>
+        <v>-10.03180118060393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.75321197224415</v>
+        <v>-20.81371316932637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.492201298105946</v>
+        <v>-6.020212700492162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.858333548549437</v>
+        <v>-8.29584640187886</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.60464447345647</v>
+        <v>-18.26455241111349</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.549873623390077</v>
+        <v>-2.584008771403863</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.485504208576011</v>
+        <v>-6.657308530390411</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-17.16494821114447</v>
+        <v>-17.85081527035582</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.90251351371539</v>
+        <v>12.90754479410227</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.99397765812843</v>
+        <v>5.728732656093932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.005628611710305</v>
+        <v>-4.618088244249923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.27008741527052</v>
+        <v>9.480351229155985</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.327121874816938</v>
+        <v>6.766034939119979</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.972375104369366</v>
+        <v>-3.50639986350745</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.107771089419581</v>
+        <v>8.893884190590901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.229251505996841</v>
+        <v>4.070944768778977</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.488798941309268</v>
+        <v>-6.816610523225171</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04618719711520991</v>
+        <v>-0.06565460204159863</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1698304594408238</v>
+        <v>-0.1798746643513002</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.38935049099487</v>
+        <v>-0.3880130509448881</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1235230639711092</v>
+        <v>-0.1291848927336565</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1763260968500866</v>
+        <v>-0.1821443797307068</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3841133927009845</v>
+        <v>-0.3887011035530774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03084679409078231</v>
+        <v>-0.05290705387289739</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1332467764181705</v>
+        <v>-0.1362320564447793</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3510795055857171</v>
+        <v>-0.3580141234068655</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3032718040674039</v>
+        <v>0.2749914103040018</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1260275288229138</v>
+        <v>0.1197658249888477</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1060503527013142</v>
+        <v>-0.09195525871995042</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2382924373798281</v>
+        <v>0.2455541165065228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1622252873227018</v>
+        <v>0.1780844309890781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.09804857947027856</v>
+        <v>-0.09283816241861952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2097621136753193</v>
+        <v>0.2044218074800455</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09599445007296727</v>
+        <v>0.09402062146715083</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1511512016804256</v>
+        <v>-0.1538283815497715</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-23.05311077678893</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-14.96041865102491</v>
+        <v>-14.96041865102492</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-7.158908950336635</v>
@@ -1306,7 +1306,7 @@
         <v>-17.64684308944842</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-8.540000302992979</v>
+        <v>-8.540000302992985</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.55223755125676</v>
+        <v>-17.68136888075065</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-30.18533007854996</v>
+        <v>-29.88297431493688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-24.28314228347739</v>
+        <v>-24.87864349565596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.14129806993579</v>
+        <v>-15.50085312291261</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.0827720784501</v>
+        <v>-19.05015510006838</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.14172114658158</v>
+        <v>-10.65731635709032</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-13.5080159132914</v>
+        <v>-13.81172484594141</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-22.3805050385522</v>
+        <v>-22.9073165423641</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.26211407619404</v>
+        <v>-14.87276970330616</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.964523655250899</v>
+        <v>-3.157843967018102</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-15.96726693025451</v>
+        <v>-16.10368658414102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.064042947858018</v>
+        <v>-4.60177898294725</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.5196752731302408</v>
+        <v>-0.1089741908178301</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.682441851360964</v>
+        <v>-4.981005010264901</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.162869193068878</v>
+        <v>5.039768631558692</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-3.55352444234961</v>
+        <v>-3.633704111148995</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-12.84805733365881</v>
+        <v>-12.79194499576106</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.255963213657162</v>
+        <v>-2.048668349166873</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.41614916156251</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2700618471202846</v>
+        <v>-0.2700618471202847</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.169759777816528</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3625982759428491</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1754755437400702</v>
+        <v>-0.1754755437400703</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2985182331122129</v>
+        <v>-0.3021140274017752</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5209200817717917</v>
+        <v>-0.5143588396911414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4259014663236404</v>
+        <v>-0.4312811704252203</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.31116833021025</v>
+        <v>-0.3321550861462895</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4196024557634707</v>
+        <v>-0.4278664730430671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2226383599371981</v>
+        <v>-0.241139725713105</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2636215010050751</v>
+        <v>-0.2739795804014685</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4426006617340661</v>
+        <v>-0.44881488198391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3036738753982336</v>
+        <v>-0.2980812964947435</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03818403908018425</v>
+        <v>-0.06025719069607582</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3079364846231981</v>
+        <v>-0.3076441506072686</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.09468945882140706</v>
+        <v>-0.08344460725347373</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01315559282020748</v>
+        <v>-0.0008699403096588807</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1443753054562222</v>
+        <v>-0.1317668509551045</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1577409111820137</v>
+        <v>0.1274481247741902</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07719823794498726</v>
+        <v>-0.07671691923247714</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2781792367856877</v>
+        <v>-0.2794372029137997</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.04858351740052126</v>
+        <v>-0.04845459199536103</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>14.5412984423223</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16.15576522229993</v>
+        <v>16.15576522229994</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.623433996077866</v>
@@ -1511,7 +1511,7 @@
         <v>11.9668012008893</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.2679375476837109</v>
+        <v>-0.2679375476837054</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.22218783778107</v>
@@ -1520,7 +1520,7 @@
         <v>13.22427697289312</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.542783024463096</v>
+        <v>7.54278302446309</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.523567802939043</v>
+        <v>4.428234462371015</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.47541742978325</v>
+        <v>4.677824738479989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.989711256352528</v>
+        <v>7.456437016495034</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.262764086358847</v>
+        <v>-2.915041871097297</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.976934617123824</v>
+        <v>2.876386127169793</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.870760610402239</v>
+        <v>-8.479582232379283</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.350290240277018</v>
+        <v>3.156302054880594</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.845035228427163</v>
+        <v>6.510549348699906</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8901290645516455</v>
+        <v>1.425508152020533</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.81801208029161</v>
+        <v>24.60748354799471</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.82320112058635</v>
+        <v>23.285834987142</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24.27439068313002</v>
+        <v>25.7063995131647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.61862899360315</v>
+        <v>15.79267720033952</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>22.0124647798354</v>
+        <v>21.12251455870216</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.501377351885854</v>
+        <v>8.81129593402888</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.11599562352623</v>
+        <v>17.3571154590768</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>20.09971309561097</v>
+        <v>19.17105393323249</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.31830223603477</v>
+        <v>13.73714641467758</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4018880957558346</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4465082500315928</v>
+        <v>0.4465082500315931</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2039911834214815</v>
@@ -1616,7 +1616,7 @@
         <v>0.3685583551047009</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.008252048328316618</v>
+        <v>-0.008252048328316448</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2980079365912147</v>
@@ -1625,7 +1625,7 @@
         <v>0.3855279863902454</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.219895118437133</v>
+        <v>0.2198951184371328</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1115027406919269</v>
+        <v>0.1087946728089106</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1124326197186009</v>
+        <v>0.1082176179513371</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1614404237266218</v>
+        <v>0.1784282310545202</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08153356748808699</v>
+        <v>-0.07859096885032012</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07960211318271532</v>
+        <v>0.06429971281625881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2110787605838957</v>
+        <v>-0.2267422321575768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08687779526649725</v>
+        <v>0.08288467812997405</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1741125812767345</v>
+        <v>0.1750294366954465</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02456993888160633</v>
+        <v>0.03567460860089644</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7848994452669781</v>
+        <v>0.7958548915636191</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7557570466618138</v>
+        <v>0.7481591734651832</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7870620408320039</v>
+        <v>0.8584741853152165</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5975962034607527</v>
+        <v>0.5646972172672438</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8316009867867251</v>
+        <v>0.7466420006735708</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3300404988236617</v>
+        <v>0.3322840487101488</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5469030960852456</v>
+        <v>0.5626851714629817</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6694894385612702</v>
+        <v>0.625900040843124</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4421857895831724</v>
+        <v>0.4459321676842128</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-7.249853303973374</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-24.05529628170543</v>
+        <v>-24.05529628170544</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.9196468586350426</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.15407227165232</v>
+        <v>-8.111655920792572</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.0915734043116</v>
+        <v>-13.91903596559713</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-30.76064300478534</v>
+        <v>-31.14152331795571</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.331185937721457</v>
+        <v>-6.414909746064684</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-14.70357447698862</v>
+        <v>-15.7874536674198</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-31.03449441005476</v>
+        <v>-31.03635335054263</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.213530557521702</v>
+        <v>-4.848217127459614</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.14557894995358</v>
+        <v>-11.79538039119398</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-28.59602393026302</v>
+        <v>-28.43806016266324</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.777854158828696</v>
+        <v>8.967660332859079</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.203876285454756</v>
+        <v>3.384064721736013</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-14.76393056190137</v>
+        <v>-14.27782024977184</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.992753816302343</v>
+        <v>10.65276175944719</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.105610053552547</v>
+        <v>0.4035714491338651</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-17.13361431994096</v>
+        <v>-17.11395735906162</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.032563678143516</v>
+        <v>6.920105723217953</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.2629585442444117</v>
+        <v>-0.7743621365216315</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-17.61337573488716</v>
+        <v>-17.5769629363315</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1744238702970512</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.57874521078899</v>
+        <v>-0.5787452107889901</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.01879480454352427</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1278119540149788</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4726852161050789</v>
+        <v>-0.4726852161050787</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1195120637870919</v>
+        <v>-0.1393984121327763</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2344779490310508</v>
+        <v>-0.230044461712091</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5072352289142846</v>
+        <v>-0.5142363140073813</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1400042132898833</v>
+        <v>-0.1424448235533768</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3283169018322782</v>
+        <v>-0.3427843003958191</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.685536530414969</v>
+        <v>-0.6798490191618276</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.09982703018532647</v>
+        <v>-0.09123133495572201</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2347921169970099</v>
+        <v>-0.2324325652065649</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5484396961403806</v>
+        <v>-0.5487413432656157</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.166935678533452</v>
+        <v>0.1716407813985012</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.06239890318643035</v>
+        <v>0.06317591134646808</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2828270254480094</v>
+        <v>-0.2722800484397225</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2695649153119117</v>
+        <v>0.2873799265588561</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02946673604134106</v>
+        <v>0.01570186167352125</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.4446897009963136</v>
+        <v>-0.4524432446209569</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.15184819063551</v>
+        <v>0.1519550145830823</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.005769522785769065</v>
+        <v>-0.01686799986285942</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3860556337970116</v>
+        <v>-0.3813592959058828</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.541207033061177</v>
+        <v>3.696014701495605</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.128527455933766</v>
+        <v>-1.873128028968349</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.15454218402716</v>
+        <v>-16.34479221855247</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-7.091511914523231</v>
+        <v>-6.800574049766206</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.32378164248832</v>
+        <v>-3.659199115746279</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-14.48621848581672</v>
+        <v>-14.48047430099705</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4904371224616694</v>
+        <v>-0.2109128401041849</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.594614164663407</v>
+        <v>-1.270916611198942</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-13.95658151318481</v>
+        <v>-13.75007824398881</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>15.21264430673358</v>
+        <v>15.51173475236774</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.234338427123808</v>
+        <v>9.457940605206854</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.485224760755083</v>
+        <v>-3.742670401163041</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.164657016596979</v>
+        <v>3.639455824724563</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.10742201279921</v>
+        <v>7.332428516708924</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.939168955736125</v>
+        <v>-3.797168571774381</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.695521995550887</v>
+        <v>7.851289990869746</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.574602844509675</v>
+        <v>7.17349848857957</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-5.552125934638119</v>
+        <v>-4.935025034955874</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.06980248828139773</v>
+        <v>0.074806435638788</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04283908928187218</v>
+        <v>-0.03706688564501785</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3146449333568925</v>
+        <v>-0.3186199272388796</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1537797599639043</v>
+        <v>-0.1469555252942543</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0718910683208816</v>
+        <v>-0.08321362063059574</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3178861608837388</v>
+        <v>-0.3196197447658116</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01001777402898933</v>
+        <v>-0.005623719949668917</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03355666655439502</v>
+        <v>-0.02728010723779502</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.292351856057878</v>
+        <v>-0.2891571240240546</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3291945822785018</v>
+        <v>0.3404178689287246</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2024396409877855</v>
+        <v>0.2081525175933532</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.07493454772069023</v>
+        <v>-0.08067697291272508</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1028958819616121</v>
+        <v>0.09130661150994351</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2087272270185968</v>
+        <v>0.1784517253950254</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.0956367793969212</v>
+        <v>-0.09286853460588634</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1762478316227852</v>
+        <v>0.1809375958830352</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1495689388299148</v>
+        <v>0.1648456056761809</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1238976329445525</v>
+        <v>-0.1139611786929976</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>7.937063268513072</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.7441694227160567</v>
+        <v>0.7441694227160511</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.887391443494542</v>
@@ -2153,7 +2153,7 @@
         <v>7.728990230632271</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.757717416933312</v>
+        <v>6.757717416933307</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.432042523624562</v>
@@ -2162,7 +2162,7 @@
         <v>7.803070288739566</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3.927187589169079</v>
+        <v>3.927187589169084</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.938913742194901</v>
+        <v>-4.633531240296461</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.354642368058224</v>
+        <v>2.574368510908466</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.052812861740833</v>
+        <v>-5.152205100232873</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.8392273329676415</v>
+        <v>-0.9734858777108841</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.358134334571602</v>
+        <v>2.695331229475523</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.611461008367322</v>
+        <v>1.178146979461219</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.8547203841804389</v>
+        <v>-1.241554761821581</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>4.226814130397958</v>
+        <v>4.34310212984296</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.1652187456686379</v>
+        <v>-0.09279222061653918</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.833695996598727</v>
+        <v>5.782954240949</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.73774238977781</v>
+        <v>12.96901477372576</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.651866974472065</v>
+        <v>6.714976445344789</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.818339272893381</v>
+        <v>9.176390761125848</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>12.39931925924147</v>
+        <v>12.80319319963094</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>12.05985379784464</v>
+        <v>11.86456115447615</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.20601336206094</v>
+        <v>5.846360312548065</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>11.29779533661271</v>
+        <v>11.60173634118403</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.721235274180835</v>
+        <v>7.338324376816884</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1683216239870096</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.01578163125522221</v>
+        <v>0.01578163125522209</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1040962751692602</v>
@@ -2258,7 +2258,7 @@
         <v>0.2069663180369528</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.180957647814553</v>
+        <v>0.1809576478145528</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.05772627108340937</v>
@@ -2267,7 +2267,7 @@
         <v>0.1852114617220456</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.09321461001015437</v>
+        <v>0.09321461001015451</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.07923520354834958</v>
+        <v>-0.09126914109612155</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.04789627661955222</v>
+        <v>0.05158858350948074</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1021613089432055</v>
+        <v>-0.102624665616815</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02138604553502544</v>
+        <v>-0.0252997456472541</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05691619049277623</v>
+        <v>0.06940883476309412</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04088744921225523</v>
+        <v>0.03025800943138137</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01967632320154318</v>
+        <v>-0.02765382518617476</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09551530722792625</v>
+        <v>0.09968110252787818</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.003211467548674538</v>
+        <v>-0.002017198770502034</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1527712492597949</v>
+        <v>0.1302135355821144</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2856776330407627</v>
+        <v>0.2857081310288674</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1486554736603647</v>
+        <v>0.1538803994742897</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2517089042177422</v>
+        <v>0.2634139652802533</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3521396580946722</v>
+        <v>0.3720423767571286</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3469578092440718</v>
+        <v>0.3392417446470812</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1539546121539959</v>
+        <v>0.1464055083025413</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2813322523452485</v>
+        <v>0.2870389467036483</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1903914930062166</v>
+        <v>0.1779758331843076</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-3.72837282628623</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-8.270838092137584</v>
+        <v>-8.270838092137577</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-1.847834621650973</v>
@@ -2367,7 +2367,7 @@
         <v>-1.738302014535392</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-5.783099999815478</v>
+        <v>-5.783099999815472</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-1.211840935855268</v>
@@ -2376,7 +2376,7 @@
         <v>-2.740755283910762</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-6.968318147952102</v>
+        <v>-6.968318147952107</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.851091868563118</v>
+        <v>-2.768249119354077</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-6.205542167326987</v>
+        <v>-6.087670276222276</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-11.04050539855006</v>
+        <v>-10.97118471793632</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-4.035393154261289</v>
+        <v>-4.206396276079222</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.150915317353763</v>
+        <v>-4.348936433382661</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-8.205982791542205</v>
+        <v>-8.318637633940755</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.842285459433571</v>
+        <v>-2.939190287001344</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-4.609027574562604</v>
+        <v>-4.566699649996807</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-8.781266439514422</v>
+        <v>-8.789966444440742</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.895832321814431</v>
+        <v>2.292047597580096</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.20326149126077</v>
+        <v>-1.030757346726179</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-5.511532924576199</v>
+        <v>-5.467087686847866</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.6035060543755907</v>
+        <v>0.3884227600264867</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.608190617190886</v>
+        <v>0.4490118806542686</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-3.204555618025193</v>
+        <v>-3.548627452789218</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.5542515128460159</v>
+        <v>0.5858476673638897</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-1.038466104754672</v>
+        <v>-1.031324372656839</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-5.14808428735563</v>
+        <v>-4.974019642396263</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.07485953834553123</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.1660647017226493</v>
+        <v>-0.1660647017226492</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.04562628112434481</v>
@@ -2472,7 +2472,7 @@
         <v>-0.04292172874396308</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.1427948926111303</v>
+        <v>-0.1427948926111302</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.02687907481168621</v>
@@ -2481,7 +2481,7 @@
         <v>-0.0607909537770888</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.1545598430195338</v>
+        <v>-0.154559843019534</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.05526911712023101</v>
+        <v>-0.05430415345161812</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1209891153417194</v>
+        <v>-0.1196981550374046</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2179165581262</v>
+        <v>-0.2168120634516432</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.09784723824793476</v>
+        <v>-0.1016126090658372</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.09841872493245782</v>
+        <v>-0.1039678705112305</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1966027312611244</v>
+        <v>-0.195002358189768</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.06219249046692144</v>
+        <v>-0.06402292089782254</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1004704112049413</v>
+        <v>-0.09887847677192592</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1920758577887048</v>
+        <v>-0.1915604793484124</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.03901020869595423</v>
+        <v>0.04602096640390718</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.02484867213297309</v>
+        <v>-0.0219455578547528</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1139092449828231</v>
+        <v>-0.1137613477168301</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01512125439156539</v>
+        <v>0.009794052669276958</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.01593799911625231</v>
+        <v>0.01082425843236778</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.08280804835841264</v>
+        <v>-0.08824703557191665</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.01323660818471337</v>
+        <v>0.0131217982005389</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.02354027910222393</v>
+        <v>-0.02340732295109574</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1160706615941709</v>
+        <v>-0.1132188924819691</v>
       </c>
     </row>
     <row r="58">
